--- a/teaching/traditional_assets/database/data/belgium/belgium_retail_online.xlsx
+++ b/teaching/traditional_assets/database/data/belgium/belgium_retail_online.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.08093385214007782</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.08093385214007782</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.1058365758754864</v>
+        <v>-0.02631578947368421</v>
       </c>
       <c r="J2">
-        <v>-0.1058365758754864</v>
+        <v>-0.02631578947368421</v>
       </c>
       <c r="K2">
-        <v>-2.68</v>
+        <v>-1.67</v>
       </c>
       <c r="L2">
-        <v>-0.1042801556420234</v>
+        <v>-0.03380566801619433</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,58 +630,64 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.62</v>
+        <v>5.61</v>
       </c>
       <c r="V2">
-        <v>0.08307692307692308</v>
+        <v>0.1621387283236994</v>
+      </c>
+      <c r="W2">
+        <v>-0.4757834757834758</v>
       </c>
       <c r="X2">
-        <v>0.1163827705834593</v>
+        <v>0.09229670468657655</v>
+      </c>
+      <c r="Y2">
+        <v>-0.5680801804700524</v>
+      </c>
+      <c r="Z2">
+        <v>21.76211453744492</v>
+      </c>
+      <c r="AA2">
+        <v>-0.5726872246696032</v>
       </c>
       <c r="AB2">
-        <v>0.08746665390274061</v>
+        <v>0.07730238577658288</v>
+      </c>
+      <c r="AC2">
+        <v>-0.6499896104461861</v>
       </c>
       <c r="AD2">
-        <v>9.91</v>
+        <v>9.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.91</v>
+        <v>9.4</v>
       </c>
       <c r="AG2">
-        <v>8.289999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="AH2">
-        <v>0.3369602176130568</v>
+        <v>0.2136363636363637</v>
       </c>
       <c r="AI2">
-        <v>0.7384500745156483</v>
+        <v>0.5365296803652968</v>
       </c>
       <c r="AJ2">
-        <v>0.2983087441525729</v>
+        <v>0.09872362594425632</v>
       </c>
       <c r="AK2">
-        <v>0.7025423728813559</v>
+        <v>0.3182199832073888</v>
       </c>
       <c r="AL2">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.105</v>
-      </c>
-      <c r="AN2">
-        <v>-6.930069930069931</v>
-      </c>
-      <c r="AO2">
-        <v>-25.90476190476191</v>
-      </c>
-      <c r="AP2">
-        <v>-5.797202797202797</v>
+        <v>-0.011</v>
       </c>
       <c r="AQ2">
-        <v>-25.90476190476191</v>
+        <v>118.1818181818182</v>
       </c>
     </row>
     <row r="3">
@@ -701,22 +707,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.08093385214007782</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.08093385214007782</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.1058365758754864</v>
+        <v>-0.02631578947368421</v>
       </c>
       <c r="J3">
-        <v>-0.1058365758754864</v>
+        <v>-0.02631578947368421</v>
       </c>
       <c r="K3">
-        <v>-2.68</v>
+        <v>-1.67</v>
       </c>
       <c r="L3">
-        <v>-0.1042801556420234</v>
+        <v>-0.03380566801619433</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,58 +746,64 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.62</v>
+        <v>5.61</v>
       </c>
       <c r="V3">
-        <v>0.08307692307692308</v>
+        <v>0.1621387283236994</v>
+      </c>
+      <c r="W3">
+        <v>-0.4757834757834758</v>
       </c>
       <c r="X3">
-        <v>0.1163827705834593</v>
+        <v>0.09229670468657655</v>
+      </c>
+      <c r="Y3">
+        <v>-0.5680801804700524</v>
+      </c>
+      <c r="Z3">
+        <v>21.76211453744492</v>
+      </c>
+      <c r="AA3">
+        <v>-0.5726872246696032</v>
       </c>
       <c r="AB3">
-        <v>0.08746665390274061</v>
+        <v>0.07730238577658288</v>
+      </c>
+      <c r="AC3">
+        <v>-0.6499896104461861</v>
       </c>
       <c r="AD3">
-        <v>9.91</v>
+        <v>9.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.91</v>
+        <v>9.4</v>
       </c>
       <c r="AG3">
-        <v>8.289999999999999</v>
+        <v>3.79</v>
       </c>
       <c r="AH3">
-        <v>0.3369602176130568</v>
+        <v>0.2136363636363637</v>
       </c>
       <c r="AI3">
-        <v>0.7384500745156483</v>
+        <v>0.5365296803652968</v>
       </c>
       <c r="AJ3">
-        <v>0.2983087441525729</v>
+        <v>0.09872362594425632</v>
       </c>
       <c r="AK3">
-        <v>0.7025423728813559</v>
+        <v>0.3182199832073888</v>
       </c>
       <c r="AL3">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.105</v>
-      </c>
-      <c r="AN3">
-        <v>-6.930069930069931</v>
-      </c>
-      <c r="AO3">
-        <v>-25.90476190476191</v>
-      </c>
-      <c r="AP3">
-        <v>-5.797202797202797</v>
+        <v>-0.011</v>
       </c>
       <c r="AQ3">
-        <v>-25.90476190476191</v>
+        <v>118.1818181818182</v>
       </c>
     </row>
   </sheetData>
